--- a/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>113358</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96399</v>
+        <v>99158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>129828</v>
+        <v>129468</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4152144775922005</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3530957259503235</v>
+        <v>0.3632043424161808</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4755431221477231</v>
+        <v>0.4742245608309416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -764,19 +764,19 @@
         <v>72312</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58347</v>
+        <v>57602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87191</v>
+        <v>87874</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2772281821341297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.22368977859214</v>
+        <v>0.22083523482161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3342737840851339</v>
+        <v>0.3368929756222322</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -785,19 +785,19 @@
         <v>185669</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>162570</v>
+        <v>165153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208718</v>
+        <v>207564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3477943883268267</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3045242535898165</v>
+        <v>0.3093634965377294</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3909689804170607</v>
+        <v>0.3888080604091617</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>159652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>143182</v>
+        <v>143542</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176611</v>
+        <v>173852</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5847855224077995</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5244568778522768</v>
+        <v>0.5257754391690583</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6469042740496763</v>
+        <v>0.6367956575838194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -835,19 +835,19 @@
         <v>188526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173647</v>
+        <v>172964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>202491</v>
+        <v>203236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7227718178658703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6657262159148661</v>
+        <v>0.6631070243777678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.77631022140786</v>
+        <v>0.7791647651783898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>338</v>
@@ -856,19 +856,19 @@
         <v>348179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325130</v>
+        <v>326284</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371278</v>
+        <v>368695</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6522056116731733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6090310195829395</v>
+        <v>0.6111919395908383</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6954757464101837</v>
+        <v>0.6906365034622706</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>191486</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168843</v>
+        <v>171540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211985</v>
+        <v>214967</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3891739868610146</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3431533976893951</v>
+        <v>0.3486345312085261</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4308350383765249</v>
+        <v>0.4368952890673024</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -981,19 +981,19 @@
         <v>118656</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100607</v>
+        <v>100827</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138419</v>
+        <v>138569</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2354530807735605</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1996380016325228</v>
+        <v>0.2000740967510328</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2746692057466472</v>
+        <v>0.2749657162519774</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -1002,19 +1002,19 @@
         <v>310143</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>283632</v>
+        <v>281057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>342454</v>
+        <v>337425</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3113939518533293</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2847765060652333</v>
+        <v>0.282190952263953</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3438358977120161</v>
+        <v>0.3387860716323904</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>300547</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>280048</v>
+        <v>277066</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>323190</v>
+        <v>320493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6108260131389853</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5691649616234751</v>
+        <v>0.5631047109326978</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6568466023106048</v>
+        <v>0.6513654687914739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>382</v>
@@ -1052,19 +1052,19 @@
         <v>385293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365530</v>
+        <v>365380</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>403342</v>
+        <v>403122</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7645469192264395</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7253307942533528</v>
+        <v>0.7250342837480226</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8003619983674771</v>
+        <v>0.7999259032489673</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>667</v>
@@ -1073,19 +1073,19 @@
         <v>685839</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653528</v>
+        <v>658557</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>712350</v>
+        <v>714925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6886060481466707</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6561641022879841</v>
+        <v>0.6612139283676096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7152234939347668</v>
+        <v>0.7178090477360471</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>147839</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130216</v>
+        <v>128991</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>165564</v>
+        <v>165414</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4636700871568297</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4083983735268397</v>
+        <v>0.4045555632879851</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5192593362815652</v>
+        <v>0.5187893952216297</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -1198,19 +1198,19 @@
         <v>94889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80327</v>
+        <v>79924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111599</v>
+        <v>111892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2829028126881415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2394867012299876</v>
+        <v>0.2382874598600116</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3327210747929896</v>
+        <v>0.3335968420725905</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>238</v>
@@ -1219,19 +1219,19 @@
         <v>242728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217231</v>
+        <v>217914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>265286</v>
+        <v>266536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3709978975413562</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3320257859531728</v>
+        <v>0.3330703219300206</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4054766347677515</v>
+        <v>0.4073860879470968</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>171007</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>153282</v>
+        <v>153432</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>188630</v>
+        <v>189855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5363299128431703</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4807406637184345</v>
+        <v>0.4812106047783703</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5916016264731598</v>
+        <v>0.5954444367120149</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -1269,19 +1269,19 @@
         <v>240523</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223813</v>
+        <v>223520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255085</v>
+        <v>255488</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7170971873118586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6672789252070104</v>
+        <v>0.6664031579274095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7605132987700125</v>
+        <v>0.7617125401399885</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>407</v>
@@ -1290,19 +1290,19 @@
         <v>411530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>388972</v>
+        <v>387722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>437027</v>
+        <v>436344</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6290021024586437</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5945233652322486</v>
+        <v>0.5926139120529028</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6679742140468272</v>
+        <v>0.6669296780699793</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>170487</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>153540</v>
+        <v>151374</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188888</v>
+        <v>189176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4753309308514465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.428080863551535</v>
+        <v>0.4220422437508997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5266343816852941</v>
+        <v>0.5274353179008174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -1415,19 +1415,19 @@
         <v>105219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88456</v>
+        <v>89352</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>121654</v>
+        <v>122090</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2832609595125273</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2381333436596306</v>
+        <v>0.2405444784484232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.327505762992469</v>
+        <v>0.3286805324379815</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>277</v>
@@ -1436,19 +1436,19 @@
         <v>275706</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>250453</v>
+        <v>250661</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303507</v>
+        <v>303182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3776143294514067</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3430269307748386</v>
+        <v>0.3433119880056504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4156901822942599</v>
+        <v>0.4152454355546209</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>188184</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>169783</v>
+        <v>169495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>205131</v>
+        <v>207297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5246690691485535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4733656183147058</v>
+        <v>0.4725646820991826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.571919136448465</v>
+        <v>0.5779577562491005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>277</v>
@@ -1486,19 +1486,19 @@
         <v>266237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249802</v>
+        <v>249366</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283000</v>
+        <v>282104</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7167390404874727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6724942370075311</v>
+        <v>0.6713194675620184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7618666563403694</v>
+        <v>0.7594555215515767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -1507,19 +1507,19 @@
         <v>454421</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>426620</v>
+        <v>426945</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>479674</v>
+        <v>479466</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6223856705485934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.58430981770574</v>
+        <v>0.584754564445379</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6569730692251613</v>
+        <v>0.6566880119943495</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>84329</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70920</v>
+        <v>71453</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99445</v>
+        <v>98798</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4147835267879102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3488298863770726</v>
+        <v>0.3514510703075588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.489133482281301</v>
+        <v>0.4859508588038983</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -1632,19 +1632,19 @@
         <v>59526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46563</v>
+        <v>47187</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73119</v>
+        <v>74511</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2866420999656258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2242162860039881</v>
+        <v>0.2272228994020341</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3520940571960085</v>
+        <v>0.3587993979753066</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -1653,19 +1653,19 @@
         <v>143855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125659</v>
+        <v>124351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163710</v>
+        <v>163588</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3500331013446917</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3057563519490653</v>
+        <v>0.302575653865344</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3983446317107585</v>
+        <v>0.3980470144912696</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>118979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>103863</v>
+        <v>104510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132388</v>
+        <v>131855</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5852164732120898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5108665177186991</v>
+        <v>0.5140491411961017</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6511701136229273</v>
+        <v>0.648548929692441</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -1703,19 +1703,19 @@
         <v>148142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134549</v>
+        <v>133157</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161105</v>
+        <v>160481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7133579000343742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6479059428039913</v>
+        <v>0.6412006020246934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7757837139960113</v>
+        <v>0.7727771005979659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>261</v>
@@ -1724,19 +1724,19 @@
         <v>267121</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>247266</v>
+        <v>247388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>285317</v>
+        <v>286625</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6499668986553083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6016553682892416</v>
+        <v>0.6019529855087304</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.694243648050935</v>
+        <v>0.6974243461346559</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>125328</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107767</v>
+        <v>107917</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>139890</v>
+        <v>141693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4627871693148707</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3979414848299698</v>
+        <v>0.3984947640799295</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.516558257738144</v>
+        <v>0.5232183668613861</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -1849,19 +1849,19 @@
         <v>65007</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50449</v>
+        <v>52026</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79154</v>
+        <v>79045</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2337187700765962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1813757264993009</v>
+        <v>0.1870484925731814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2845784217854494</v>
+        <v>0.2841880900210125</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>188</v>
@@ -1870,19 +1870,19 @@
         <v>190335</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>169578</v>
+        <v>168074</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>213730</v>
+        <v>212299</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3467230103696721</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3089097265514891</v>
+        <v>0.3061710611111491</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3893388937586567</v>
+        <v>0.3867331483005047</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>145483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>130921</v>
+        <v>129118</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163044</v>
+        <v>162894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5372128306851294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4834417422618559</v>
+        <v>0.4767816331386138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.60205851517003</v>
+        <v>0.6015052359200705</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>206</v>
@@ -1920,19 +1920,19 @@
         <v>213137</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198990</v>
+        <v>199099</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227695</v>
+        <v>226118</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7662812299234039</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7154215782145507</v>
+        <v>0.7158119099789877</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8186242735006994</v>
+        <v>0.812951507426819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>348</v>
@@ -1941,19 +1941,19 @@
         <v>358620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>335225</v>
+        <v>336656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>379377</v>
+        <v>380881</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6532769896303279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6106611062413431</v>
+        <v>0.613266851699495</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6910902734485109</v>
+        <v>0.6938289388888508</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>234976</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>211397</v>
+        <v>210914</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>258810</v>
+        <v>259982</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3820579109204469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3437200729439032</v>
+        <v>0.3429346729279313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4208113965297291</v>
+        <v>0.4227166971169176</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -2066,19 +2066,19 @@
         <v>161353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139667</v>
+        <v>140001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183907</v>
+        <v>183105</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2528169480461331</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2188393710592876</v>
+        <v>0.2193621209247022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2881572391047817</v>
+        <v>0.286900395273755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>388</v>
@@ -2087,19 +2087,19 @@
         <v>396329</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>364871</v>
+        <v>364377</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>431214</v>
+        <v>427179</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3162415905328408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.291140998964489</v>
+        <v>0.2907463112825637</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3440779694031261</v>
+        <v>0.340858351931851</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>380051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>356217</v>
+        <v>355045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>403630</v>
+        <v>404113</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6179420890795531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5791886034702707</v>
+        <v>0.5772833028830824</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6562799270560967</v>
+        <v>0.6570653270720686</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>463</v>
@@ -2137,19 +2137,19 @@
         <v>476866</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>454312</v>
+        <v>455114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>498552</v>
+        <v>498218</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7471830519538669</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7118427608952185</v>
+        <v>0.7130996047262448</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7811606289407124</v>
+        <v>0.7806378790752971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>831</v>
@@ -2158,19 +2158,19 @@
         <v>856917</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>822032</v>
+        <v>826067</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>888375</v>
+        <v>888869</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6837584094671593</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6559220305968739</v>
+        <v>0.6591416480681489</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.70885900103551</v>
+        <v>0.7092536887174361</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>317478</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>289935</v>
+        <v>293450</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>345351</v>
+        <v>344656</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4268349704078746</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3898047796930851</v>
+        <v>0.3945308382717115</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4643100397656374</v>
+        <v>0.4633747691690911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>179</v>
@@ -2283,19 +2283,19 @@
         <v>186368</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163387</v>
+        <v>162813</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>210314</v>
+        <v>211444</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2378621552212478</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2085316208373683</v>
+        <v>0.207799102236385</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2684250411489518</v>
+        <v>0.2698669642261376</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>486</v>
@@ -2304,19 +2304,19 @@
         <v>503845</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>466962</v>
+        <v>465931</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>539357</v>
+        <v>539442</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3298915449634213</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3057421229016065</v>
+        <v>0.305067360589489</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3531426807798984</v>
+        <v>0.3531981656299021</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>426317</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>398444</v>
+        <v>399139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>453860</v>
+        <v>450345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5731650295921253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5356899602343627</v>
+        <v>0.536625230830909</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.610195220306915</v>
+        <v>0.6054691617282889</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>566</v>
@@ -2354,19 +2354,19 @@
         <v>597143</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>573197</v>
+        <v>572067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>620124</v>
+        <v>620698</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7621378447787522</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7315749588510478</v>
+        <v>0.7301330357738625</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7914683791626316</v>
+        <v>0.7922008977636149</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>995</v>
@@ -2375,19 +2375,19 @@
         <v>1023461</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>987949</v>
+        <v>987864</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1060344</v>
+        <v>1061375</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6701084550365787</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6468573192201017</v>
+        <v>0.6468018343700978</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6942578770983935</v>
+        <v>0.6949326394105109</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>1385281</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1325228</v>
+        <v>1330127</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1441345</v>
+        <v>1438554</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4229219431522778</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4045878954716592</v>
+        <v>0.4060834222805361</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.440038013342917</v>
+        <v>0.4391859405449984</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>845</v>
@@ -2500,19 +2500,19 @@
         <v>863330</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>812443</v>
+        <v>811508</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>912082</v>
+        <v>918012</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2554837841463889</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2404247837439934</v>
+        <v>0.2401481971050369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.269910911952388</v>
+        <v>0.2716658587610183</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2194</v>
@@ -2521,19 +2521,19 @@
         <v>2248611</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2168802</v>
+        <v>2175533</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2334437</v>
+        <v>2329788</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3378983182442462</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3259054693271328</v>
+        <v>0.3269168435941037</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3507953464992103</v>
+        <v>0.3500966841717661</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>1890220</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1834156</v>
+        <v>1836947</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1950273</v>
+        <v>1945374</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5770780568477222</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.559961986657083</v>
+        <v>0.5608140594550016</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5954121045283408</v>
+        <v>0.5939165777194639</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2452</v>
@@ -2571,19 +2571,19 @@
         <v>2515867</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2467115</v>
+        <v>2461185</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2566754</v>
+        <v>2567689</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7445162158536111</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7300890880476121</v>
+        <v>0.7283341412389818</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7595752162560068</v>
+        <v>0.7598518028949631</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4316</v>
@@ -2592,19 +2592,19 @@
         <v>4406087</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4320261</v>
+        <v>4324910</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4485896</v>
+        <v>4479165</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6621016817557539</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.64920465350079</v>
+        <v>0.649903315828234</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6740945306728673</v>
+        <v>0.6730831564058967</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>136480</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>118115</v>
+        <v>118219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154862</v>
+        <v>154216</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4630540642706653</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4007453214091707</v>
+        <v>0.4010973094422004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5254226140216437</v>
+        <v>0.5232317056487593</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -2961,19 +2961,19 @@
         <v>97931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81201</v>
+        <v>80515</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114910</v>
+        <v>116075</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3409319176001409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2826874530147072</v>
+        <v>0.2802991937688252</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4000424283564474</v>
+        <v>0.4040990893783281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>215</v>
@@ -2982,19 +2982,19 @@
         <v>234411</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>210719</v>
+        <v>212339</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>260168</v>
+        <v>261335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4027791521444734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3620714738201893</v>
+        <v>0.3648544077364462</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4470375483512724</v>
+        <v>0.4490425232474392</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>158258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139876</v>
+        <v>140522</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176623</v>
+        <v>176519</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5369459357293347</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4745773859783562</v>
+        <v>0.4767682943512406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5992546785908291</v>
+        <v>0.5989026905577993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -3032,19 +3032,19 @@
         <v>189314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>172335</v>
+        <v>171170</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206044</v>
+        <v>206730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6590680823998591</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5999575716435526</v>
+        <v>0.5959009106216719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7173125469852928</v>
+        <v>0.7197008062311748</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>323</v>
@@ -3053,19 +3053,19 @@
         <v>347572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321815</v>
+        <v>320648</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371264</v>
+        <v>369644</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5972208478555266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5529624516487277</v>
+        <v>0.5509574767525606</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6379285261798108</v>
+        <v>0.6351455922635535</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>208104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>184296</v>
+        <v>185730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231585</v>
+        <v>233218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4116585228589429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3645626819179169</v>
+        <v>0.3673978591204454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4581057787578598</v>
+        <v>0.4613363175158529</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -3178,19 +3178,19 @@
         <v>151218</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131199</v>
+        <v>130841</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>174800</v>
+        <v>172769</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2887139033450371</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2504924982552179</v>
+        <v>0.2498082585916903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3337375842722901</v>
+        <v>0.3298604192814595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -3199,19 +3199,19 @@
         <v>359323</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>327996</v>
+        <v>328315</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>391147</v>
+        <v>391302</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3490970020962256</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3186617571685596</v>
+        <v>0.3189721198115835</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3800152301111704</v>
+        <v>0.3801658700509495</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>297423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273942</v>
+        <v>272309</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>321231</v>
+        <v>319797</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.588341477141057</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5418942212421404</v>
+        <v>0.5386636824841472</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.635437318082083</v>
+        <v>0.6326021408795548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>342</v>
@@ -3249,19 +3249,19 @@
         <v>372547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>348965</v>
+        <v>350996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392566</v>
+        <v>392924</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7112860966549629</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6662624157277099</v>
+        <v>0.6701395807185403</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7495075017447821</v>
+        <v>0.7501917414083097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>623</v>
@@ -3270,19 +3270,19 @@
         <v>669969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>638145</v>
+        <v>637990</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>701296</v>
+        <v>700977</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6509029979037744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6199847698888294</v>
+        <v>0.6198341299490505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6813382428314403</v>
+        <v>0.6810278801884166</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>127037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109875</v>
+        <v>109995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>144432</v>
+        <v>145593</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3920352846978495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3390717151438142</v>
+        <v>0.3394412088580163</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4457155476134362</v>
+        <v>0.4492976595286324</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -3395,19 +3395,19 @@
         <v>87433</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70157</v>
+        <v>71090</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103747</v>
+        <v>104223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2571304526930087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2063247756491275</v>
+        <v>0.2090666611000696</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3051063449759228</v>
+        <v>0.3065072736317756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -3416,19 +3416,19 @@
         <v>214471</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191468</v>
+        <v>191085</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>238798</v>
+        <v>238971</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3229589181651394</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2883203427022857</v>
+        <v>0.2877444616672079</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3595919807700846</v>
+        <v>0.3598528653492105</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>197009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>179614</v>
+        <v>178453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>214171</v>
+        <v>214051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6079647153021506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5542844523865638</v>
+        <v>0.5507023404713677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6609282848561858</v>
+        <v>0.6605587911419837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -3466,19 +3466,19 @@
         <v>252601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236287</v>
+        <v>235811</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>269877</v>
+        <v>268944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7428695473069913</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6948936550240772</v>
+        <v>0.6934927263682243</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7936752243508725</v>
+        <v>0.7909333388999304</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>429</v>
@@ -3487,19 +3487,19 @@
         <v>449609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>425282</v>
+        <v>425109</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>472612</v>
+        <v>472995</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6770410818348606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6404080192299153</v>
+        <v>0.6401471346507897</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7116796572977143</v>
+        <v>0.7122555383327921</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>131927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113105</v>
+        <v>111643</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>153130</v>
+        <v>152986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3527621704288167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3024339560555676</v>
+        <v>0.2985255979197087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4094581458787162</v>
+        <v>0.4090723094884463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -3612,19 +3612,19 @@
         <v>103984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88080</v>
+        <v>86463</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123632</v>
+        <v>120639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2673434776065854</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2264543249847025</v>
+        <v>0.2222991327148654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3178593772894719</v>
+        <v>0.3101661407377628</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>219</v>
@@ -3633,19 +3633,19 @@
         <v>235910</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210408</v>
+        <v>209598</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>261672</v>
+        <v>264010</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3092148591773978</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2757883677188874</v>
+        <v>0.2747261871890133</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3429814850724392</v>
+        <v>0.3460454636836303</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>242055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>220852</v>
+        <v>220996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>260877</v>
+        <v>262339</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6472378295711833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5905418541212838</v>
+        <v>0.5909276905115538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6975660439444327</v>
+        <v>0.7014744020802913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>271</v>
@@ -3683,19 +3683,19 @@
         <v>284967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>265319</v>
+        <v>268312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300871</v>
+        <v>302488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7326565223934146</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6821406227105282</v>
+        <v>0.6898338592622372</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7735456750152976</v>
+        <v>0.7777008672851347</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -3704,19 +3704,19 @@
         <v>527023</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>501261</v>
+        <v>498923</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>552525</v>
+        <v>553335</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6907851408226021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6570185149275608</v>
+        <v>0.6539545363163698</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7242116322811126</v>
+        <v>0.7252738128109868</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>91399</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77223</v>
+        <v>76011</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106732</v>
+        <v>105519</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4298762842316327</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3632004649791458</v>
+        <v>0.3575014892843664</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5019912650548439</v>
+        <v>0.4962832384965853</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -3829,19 +3829,19 @@
         <v>65439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51666</v>
+        <v>50989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78818</v>
+        <v>78883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.298005837208548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2352806090424712</v>
+        <v>0.2322014736751331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3589322106983659</v>
+        <v>0.359228744346159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>148</v>
@@ -3850,19 +3850,19 @@
         <v>156839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>137386</v>
+        <v>134993</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178149</v>
+        <v>178527</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3628773075912063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.317868207906962</v>
+        <v>0.3123335758306499</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4121821369959879</v>
+        <v>0.4130566387204702</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>121219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105886</v>
+        <v>107099</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135395</v>
+        <v>136607</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5701237157683673</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.498008734945156</v>
+        <v>0.5037167615034147</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6367995350208542</v>
+        <v>0.6424985107156337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -3900,19 +3900,19 @@
         <v>154152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140773</v>
+        <v>140708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167925</v>
+        <v>168602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.701994162791452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.641067789301634</v>
+        <v>0.6407712556538409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7647193909575287</v>
+        <v>0.7677985263248669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -3921,19 +3921,19 @@
         <v>275370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>254060</v>
+        <v>253682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>294823</v>
+        <v>297216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6371226924087937</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5878178630040121</v>
+        <v>0.5869433612795298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6821317920930375</v>
+        <v>0.6876664241693503</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>83740</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>69804</v>
+        <v>69607</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>100632</v>
+        <v>101517</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3056426779748324</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2547775380396282</v>
+        <v>0.2540581529051632</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3672966172388736</v>
+        <v>0.3705258969205102</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -4046,19 +4046,19 @@
         <v>66879</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53146</v>
+        <v>53323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81519</v>
+        <v>82018</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2388264137162057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.189784727879106</v>
+        <v>0.1904177774604968</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.29110880363648</v>
+        <v>0.2928885853521054</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -4067,19 +4067,19 @@
         <v>150619</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130804</v>
+        <v>131773</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173779</v>
+        <v>173534</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2718697179796528</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2361026028996525</v>
+        <v>0.2378527872753303</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3136731568388668</v>
+        <v>0.3132315546915367</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>190241</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173349</v>
+        <v>172464</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204177</v>
+        <v>204374</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6943573220251675</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6327033827611263</v>
+        <v>0.6294741030794897</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7452224619603718</v>
+        <v>0.7459418470948367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -4117,19 +4117,19 @@
         <v>213152</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198512</v>
+        <v>198013</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226885</v>
+        <v>226708</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7611735862837943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.70889119636352</v>
+        <v>0.7071114146478946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8102152721208941</v>
+        <v>0.8095822225395032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>384</v>
@@ -4138,19 +4138,19 @@
         <v>403393</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>380233</v>
+        <v>380478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423208</v>
+        <v>422239</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7281302820203471</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6863268431611332</v>
+        <v>0.6867684453084634</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7638973971003474</v>
+        <v>0.7621472127246699</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>280194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>256097</v>
+        <v>253689</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>308235</v>
+        <v>305873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4227511534312262</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3863929643611026</v>
+        <v>0.3827602152837872</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4650577169142668</v>
+        <v>0.4614944679463104</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -4263,19 +4263,19 @@
         <v>194550</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>170948</v>
+        <v>172689</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>224385</v>
+        <v>221356</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2803904936285326</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2463749977468055</v>
+        <v>0.2488834463053482</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.323389584581868</v>
+        <v>0.3190242285214129</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>441</v>
@@ -4284,19 +4284,19 @@
         <v>474744</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>441600</v>
+        <v>436354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>515218</v>
+        <v>511325</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3499409066584563</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3255101584961835</v>
+        <v>0.3216429639210727</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3797749225253508</v>
+        <v>0.3769054843812997</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>382594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>354553</v>
+        <v>356915</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>406691</v>
+        <v>409099</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5772488465687738</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5349422830857332</v>
+        <v>0.5385055320536891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6136070356388972</v>
+        <v>0.6172397847162125</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>458</v>
@@ -4334,19 +4334,19 @@
         <v>499303</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>469468</v>
+        <v>472497</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>522905</v>
+        <v>521164</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7196095063714674</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.676610415418132</v>
+        <v>0.6809757714785869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7536250022531944</v>
+        <v>0.7511165536946517</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>813</v>
@@ -4355,19 +4355,19 @@
         <v>881897</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>841423</v>
+        <v>845316</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>915041</v>
+        <v>920287</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6500590933415437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6202250774746492</v>
+        <v>0.6230945156187003</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6744898415038164</v>
+        <v>0.6783570360789273</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>296154</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>269240</v>
+        <v>268520</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>323574</v>
+        <v>325626</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3806268976647975</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.346035758447637</v>
+        <v>0.3451110034088618</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4158682835557656</v>
+        <v>0.4185057079008405</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>190</v>
@@ -4480,19 +4480,19 @@
         <v>208836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>181380</v>
+        <v>184434</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>233308</v>
+        <v>234161</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2537939319931095</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2204274167116027</v>
+        <v>0.2241385943430043</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.28353348823646</v>
+        <v>0.2845709860319824</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>464</v>
@@ -4501,19 +4501,19 @@
         <v>504990</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>467445</v>
+        <v>466934</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>543603</v>
+        <v>543312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3154362449191621</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2919838672962786</v>
+        <v>0.2916648188614168</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3395555982783456</v>
+        <v>0.3393733920072924</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>481915</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>454495</v>
+        <v>452443</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>508829</v>
+        <v>509549</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6193731023352025</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5841317164442343</v>
+        <v>0.5814942920991594</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6539642415523628</v>
+        <v>0.6548889965911381</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>566</v>
@@ -4551,19 +4551,19 @@
         <v>614021</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>589549</v>
+        <v>588696</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>641477</v>
+        <v>638423</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7462060680068906</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.71646651176354</v>
+        <v>0.7154290139680175</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7795725832883971</v>
+        <v>0.7758614056569956</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1008</v>
@@ -4572,19 +4572,19 @@
         <v>1095936</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1057323</v>
+        <v>1057614</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1133481</v>
+        <v>1133992</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6845637550808379</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6604444017216544</v>
+        <v>0.6606266079927076</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7080161327037213</v>
+        <v>0.7083351811385832</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>1355036</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1297341</v>
+        <v>1298671</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1418034</v>
+        <v>1419852</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3955445672003022</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3787028203037276</v>
+        <v>0.3790909986768302</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.413933929762612</v>
+        <v>0.4144648272170601</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>898</v>
@@ -4697,19 +4697,19 @@
         <v>976270</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>921895</v>
+        <v>922351</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1035444</v>
+        <v>1033349</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2745163570971233</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2592265882613503</v>
+        <v>0.2593548981087217</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2911553132794867</v>
+        <v>0.2905662617000394</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2168</v>
@@ -4718,19 +4718,19 @@
         <v>2331306</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2254274</v>
+        <v>2252800</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2417674</v>
+        <v>2420969</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3338987358651462</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.322865883583975</v>
+        <v>0.322654753155259</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3462686481416593</v>
+        <v>0.3467405516425792</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>2070713</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2007715</v>
+        <v>2005897</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2128408</v>
+        <v>2127078</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6044554327996978</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.586066070237388</v>
+        <v>0.5855351727829402</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6212971796962724</v>
+        <v>0.62090900132317</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2398</v>
@@ -4768,19 +4768,19 @@
         <v>2580057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2520883</v>
+        <v>2522978</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2634432</v>
+        <v>2633976</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7254836429028767</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7088446867205133</v>
+        <v>0.7094337382999606</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7407734117386497</v>
+        <v>0.740645101891278</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4336</v>
@@ -4789,19 +4789,19 @@
         <v>4650770</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4564402</v>
+        <v>4561107</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4727802</v>
+        <v>4729276</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6661012641348538</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6537313518583407</v>
+        <v>0.6532594483574208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6771341164160251</v>
+        <v>0.6773452468447411</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>107914</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90540</v>
+        <v>91900</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>125553</v>
+        <v>124781</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.367352053163634</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3082108298330465</v>
+        <v>0.3128376788516589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4273981959418141</v>
+        <v>0.4247690170573394</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -5158,19 +5158,19 @@
         <v>73714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2553269152843574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -5179,19 +5179,19 @@
         <v>181627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158575</v>
+        <v>155619</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>203692</v>
+        <v>204019</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3118258861783165</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2722479177651112</v>
+        <v>0.2671739167181964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.349706754339378</v>
+        <v>0.3502686813389347</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>185847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>168208</v>
+        <v>168980</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203221</v>
+        <v>201861</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6326479468363659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5726018040581864</v>
+        <v>0.5752309829426607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6917891701669538</v>
+        <v>0.6871623211483413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -5229,19 +5229,19 @@
         <v>214989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197722</v>
+        <v>199190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228754</v>
+        <v>229481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7446730847156425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6848635508502501</v>
+        <v>0.6899473131173925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7923504602139108</v>
+        <v>0.7948678580365437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -5250,19 +5250,19 @@
         <v>400837</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>378772</v>
+        <v>378445</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>423889</v>
+        <v>426845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6881741138216836</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.650293245660622</v>
+        <v>0.6497313186610655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.727752082234889</v>
+        <v>0.7328260832818038</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>210096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188469</v>
+        <v>186668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231967</v>
+        <v>232174</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4187583589843372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.375652615163484</v>
+        <v>0.372063453224974</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4623518141608783</v>
+        <v>0.4627637516892474</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -5375,19 +5375,19 @@
         <v>141801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>119938</v>
+        <v>122897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161120</v>
+        <v>161024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2722310321203775</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2302578788202016</v>
+        <v>0.2359386343863078</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.309318512478442</v>
+        <v>0.309134602067165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>331</v>
@@ -5396,19 +5396,19 @@
         <v>351897</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>321445</v>
+        <v>320931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>384711</v>
+        <v>382950</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3441208787847019</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3143418528226167</v>
+        <v>0.3138391086602676</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3762102058807129</v>
+        <v>0.3744878047003707</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>291615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>269744</v>
+        <v>269537</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313242</v>
+        <v>315043</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5812416410156628</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5376481858391218</v>
+        <v>0.5372362483107526</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.624347384836516</v>
+        <v>0.627936546775026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -5446,19 +5446,19 @@
         <v>379085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359766</v>
+        <v>359862</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>400948</v>
+        <v>397989</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7277689678796225</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6906814875215577</v>
+        <v>0.6908653979328349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7697421211797979</v>
+        <v>0.7640613656136922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>625</v>
@@ -5467,19 +5467,19 @@
         <v>670700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>637886</v>
+        <v>639647</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>701152</v>
+        <v>701666</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6558791212152981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6237897941192871</v>
+        <v>0.6255121952996294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6856581471773835</v>
+        <v>0.6861608913397328</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>96331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3023891223885004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -5592,19 +5592,19 @@
         <v>81403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.242048269451268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -5613,19 +5613,19 @@
         <v>177734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2714012193058363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>222234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205660</v>
+        <v>204699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237163</v>
+        <v>237135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6976108776114996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6455812191445527</v>
+        <v>0.6425672950825885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7444731637831732</v>
+        <v>0.7443854883269032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -5663,19 +5663,19 @@
         <v>254906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240840</v>
+        <v>239104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270037</v>
+        <v>270593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.757951730548732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7161280765718078</v>
+        <v>0.7109647004996993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8029425320212658</v>
+        <v>0.8045974528860241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -5684,19 +5684,19 @@
         <v>477140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>454795</v>
+        <v>452404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496712</v>
+        <v>498300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7285987806941637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6944763482139354</v>
+        <v>0.6908258437946517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.758485138853301</v>
+        <v>0.7609096587611863</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>142205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122412</v>
+        <v>124216</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>162226</v>
+        <v>162796</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3843743444464751</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3308740960979882</v>
+        <v>0.3357509664295419</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4384905605915098</v>
+        <v>0.4400309696277403</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -5809,19 +5809,19 @@
         <v>108757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2817555711039104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>233</v>
@@ -5830,19 +5830,19 @@
         <v>250962</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224769</v>
+        <v>224039</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>275942</v>
+        <v>280680</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3319767151266375</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2973283290784517</v>
+        <v>0.2963631369025901</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3650210735722037</v>
+        <v>0.3712887018669058</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>227759</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>207738</v>
+        <v>207168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>247552</v>
+        <v>245748</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.615625655553525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5615094394084906</v>
+        <v>0.5599690303722599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6691259039020119</v>
+        <v>0.6642490335704583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -5880,19 +5880,19 @@
         <v>277241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259106</v>
+        <v>258878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296849</v>
+        <v>295799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7182444288960896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6712616516183351</v>
+        <v>0.6706725298641183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7690439308044028</v>
+        <v>0.7663213726803341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>478</v>
@@ -5901,19 +5901,19 @@
         <v>505000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>480020</v>
+        <v>475282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>531193</v>
+        <v>531923</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6680232848733625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6349789264277963</v>
+        <v>0.628711298133094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7026716709215483</v>
+        <v>0.7036368630974094</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>85886</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71961</v>
+        <v>71812</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101383</v>
+        <v>101570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4066178909998863</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3406896950849944</v>
+        <v>0.339987145224883</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.479986162693709</v>
+        <v>0.4808706437808802</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -6026,19 +6026,19 @@
         <v>56643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -6047,19 +6047,19 @@
         <v>142529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122125</v>
+        <v>123134</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>162845</v>
+        <v>162869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3316112806058845</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.284138837086472</v>
+        <v>0.2864870101279118</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3788794126231048</v>
+        <v>0.3789344583070257</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>125335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109838</v>
+        <v>109651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>139260</v>
+        <v>139409</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5933821090001137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.520013837306291</v>
+        <v>0.5191293562191198</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6593103049150055</v>
+        <v>0.660012854775117</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -6097,19 +6097,19 @@
         <v>161944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148679</v>
+        <v>148055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174656</v>
+        <v>173771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740867737466682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6801803661022403</v>
+        <v>0.6773260569193946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7990227602638493</v>
+        <v>0.7949757014044472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>292</v>
@@ -6118,19 +6118,19 @@
         <v>287279</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>266963</v>
+        <v>266939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>307683</v>
+        <v>306674</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6683887193941155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6211205873768952</v>
+        <v>0.6210655416929743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7158611629135282</v>
+        <v>0.7135129898720882</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>89201</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>73893</v>
+        <v>75011</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105265</v>
+        <v>104874</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3390079308250676</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.280831614172066</v>
+        <v>0.2850782741235861</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4000608274969622</v>
+        <v>0.3985725077350764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -6243,19 +6243,19 @@
         <v>73058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2674992022600141</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>157</v>
@@ -6264,19 +6264,19 @@
         <v>162259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143128</v>
+        <v>142057</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182946</v>
+        <v>183614</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3025873368963383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2669115199179849</v>
+        <v>0.2649138435327128</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3411649962868507</v>
+        <v>0.3424117690808927</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>173922</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>157858</v>
+        <v>158249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>189230</v>
+        <v>188112</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6609920691749325</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5999391725030377</v>
+        <v>0.6014274922649234</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7191683858279341</v>
+        <v>0.7149217258764139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -6314,19 +6314,19 @@
         <v>200057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182280</v>
+        <v>185043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213515</v>
+        <v>213611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7325007977399859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6674118672438326</v>
+        <v>0.677529258995246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7817760508353624</v>
+        <v>0.7821300999075608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>365</v>
@@ -6335,19 +6335,19 @@
         <v>373979</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353292</v>
+        <v>352624</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>393110</v>
+        <v>394181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6974126631036617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6588350037131494</v>
+        <v>0.6575882309191073</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7330884800820151</v>
+        <v>0.7350861564672873</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>202092</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>178759</v>
+        <v>176384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>226937</v>
+        <v>227998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3083088246498922</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2727117581887776</v>
+        <v>0.2690883873709622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3462119956532558</v>
+        <v>0.3478309033717385</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>168</v>
@@ -6460,19 +6460,19 @@
         <v>174812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151588</v>
+        <v>150830</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197187</v>
+        <v>198735</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2535931850306049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2199038214922335</v>
+        <v>0.2188037102206213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2860522901472715</v>
+        <v>0.2882975824809146</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>341</v>
@@ -6481,19 +6481,19 @@
         <v>376904</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>341421</v>
+        <v>341955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>408210</v>
+        <v>415098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2802623362229673</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2538774672249227</v>
+        <v>0.2542743583114717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3035412748759569</v>
+        <v>0.3086634987127131</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>453394</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>428549</v>
+        <v>427488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>476727</v>
+        <v>479102</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6916911753501077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6537880043467442</v>
+        <v>0.6521690966282614</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7272882418112224</v>
+        <v>0.7309116126290377</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>476</v>
@@ -6531,19 +6531,19 @@
         <v>514527</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>492152</v>
+        <v>490604</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>537751</v>
+        <v>538509</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7464068149693951</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7139477098527288</v>
+        <v>0.7117024175190854</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7800961785077666</v>
+        <v>0.7811962897793789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>882</v>
@@ -6552,19 +6552,19 @@
         <v>967921</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>936615</v>
+        <v>929727</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1003404</v>
+        <v>1002870</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7197376637770327</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6964587251240432</v>
+        <v>0.6913365012872867</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7461225327750772</v>
+        <v>0.745725641688528</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>256010</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230726</v>
+        <v>229333</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284338</v>
+        <v>281845</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3288148902418011</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2963402973145685</v>
+        <v>0.2945520736760084</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3651993745933811</v>
+        <v>0.3619977560849269</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -6677,19 +6677,19 @@
         <v>214288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2593766946169654</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>445</v>
@@ -6698,19 +6698,19 @@
         <v>470298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>433361</v>
+        <v>433838</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>508838</v>
+        <v>506349</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2930663026446254</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2700486253935707</v>
+        <v>0.2703463657536744</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3170826857423973</v>
+        <v>0.3155316203652028</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>522573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>494245</v>
+        <v>496738</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>547857</v>
+        <v>549250</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6711851097581989</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6348006254066187</v>
+        <v>0.6380022439150731</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7036597026854314</v>
+        <v>0.7054479263239916</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -6748,19 +6748,19 @@
         <v>611879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>586889</v>
+        <v>585765</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>637756</v>
+        <v>634699</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7406233053830346</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7103759277261182</v>
+        <v>0.7090148232567238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7719453662968466</v>
+        <v>0.7682455757103137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1060</v>
@@ -6769,19 +6769,19 @@
         <v>1134452</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1095912</v>
+        <v>1098401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1171389</v>
+        <v>1170912</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7069336973553747</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6829173142576026</v>
+        <v>0.684468379634797</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7299513746064293</v>
+        <v>0.729653634246325</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>1189733</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1132708</v>
+        <v>1131547</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1245818</v>
+        <v>1245998</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3507040825745484</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3338943618818603</v>
+        <v>0.3335521400303301</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3672363941641641</v>
+        <v>0.3672893609873641</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>895</v>
@@ -6894,19 +6894,19 @@
         <v>924476</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>871722</v>
+        <v>869142</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>978327</v>
+        <v>981830</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2612175840442336</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2463114498739905</v>
+        <v>0.2455825342713981</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.276433537667205</v>
+        <v>0.2774233471219599</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2002</v>
@@ -6915,19 +6915,19 @@
         <v>2114209</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2028994</v>
+        <v>2039546</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2192295</v>
+        <v>2196204</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3050139446573804</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2927199913113854</v>
+        <v>0.294242305251616</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3162793045443187</v>
+        <v>0.3168432232446354</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>2202681</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2146596</v>
+        <v>2146416</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2259706</v>
+        <v>2260867</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6492959174254516</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.632763605835836</v>
+        <v>0.632710639012636</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6661056381181397</v>
+        <v>0.6664478599696702</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2438</v>
@@ -6965,19 +6965,19 @@
         <v>2614627</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2560776</v>
+        <v>2557273</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2667381</v>
+        <v>2669961</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7387824159557664</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.723566462332795</v>
+        <v>0.7225766528780402</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7536885501260094</v>
+        <v>0.7544174657286018</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4560</v>
@@ -6986,19 +6986,19 @@
         <v>4817308</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4739222</v>
+        <v>4735313</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4902523</v>
+        <v>4891971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6949860553426196</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6837206954556813</v>
+        <v>0.683156776755365</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7072800086886146</v>
+        <v>0.705757694748384</v>
       </c>
     </row>
     <row r="30">
